--- a/idea/サイトデザイン.xlsx
+++ b/idea/サイトデザイン.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namfs\Documents\サークル関連フォルダ\一本の水路ハッカソン\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\The-waterway-haccason\idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B931EC8D-73B7-42B7-9F4B-C719CA2A57C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30EA15C-54F6-4A12-9EC3-DABAB5A63ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9851B95F-8934-41D3-8986-53F4EC633FBF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{9851B95F-8934-41D3-8986-53F4EC633FBF}"/>
   </bookViews>
   <sheets>
     <sheet name="サイト構成" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,73 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>参考サイト</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://pierrotshop.jp/?a8=MISVmIytjsQ3rSZ7TUfCHufwKWnNK0oQ.Uf.yszQv.BtjsSITscpgsoDh-Pbcbof2._WQXS72ISVGs00000017271001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本フレーム</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品一覧</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンイチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定商</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お問い合わせ</t>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン/新規登録</t>
+    <rPh sb="5" eb="9">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品ページ</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +113,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -72,17 +145,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -99,6 +182,1474 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>633739</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>367323</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>10088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60664E7D-148E-4A8A-8393-B2F525AC64CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1954539" y="861158"/>
+          <a:ext cx="3695984" cy="5321130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>74880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>501720</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>102240</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="19" name="インク 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{596366BC-343E-6770-28B9-FC221B1B0FCC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1448280" y="1675080"/>
+            <a:ext cx="1034640" cy="255960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="19" name="インク 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{596366BC-343E-6770-28B9-FC221B1B0FCC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1439283" y="1666440"/>
+              <a:ext cx="1052274" cy="273600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4955</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B907CDD4-992D-2EC6-7510-95C79B953F38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6608955" y="965200"/>
+          <a:ext cx="5811644" cy="4038600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{656609B3-9A08-E39C-6DC5-5AF3F2B86321}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3441700" y="508000"/>
+          <a:ext cx="3651250" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" u="none"/>
+            <a:t>基本フレーム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77930800-A1A5-446F-8C32-63C3837400E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591050" y="1485900"/>
+          <a:ext cx="1308100" cy="679450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>商品</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD6CE3B-D1D3-49D9-9258-308C0CF5E065}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591050" y="2489200"/>
+          <a:ext cx="1320800" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>商品紹介</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E3C00D-4894-42EE-B989-4BBBD6C3E06B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7905750" y="622300"/>
+          <a:ext cx="1631950" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>会員登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624A6B05-26E4-49D4-AAEE-637D0915A871}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4610100" y="3460750"/>
+          <a:ext cx="1308100" cy="679450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>購入ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB8D54D1-8C0C-4666-8F8B-97EC1D0149E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9937750" y="635000"/>
+          <a:ext cx="1365250" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>ログイン画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F825210E-86D9-40CB-B930-77331FFC2D84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7893050" y="1276350"/>
+          <a:ext cx="1365250" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>特定商取引法</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08DA55FC-41AC-449D-B5E6-ED30B9B6E6EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7905750" y="1854200"/>
+          <a:ext cx="1365250" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>お問い合わせ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED556D5-95FA-5227-700B-AC571F429E27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5289550" y="1155700"/>
+          <a:ext cx="0" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FBAC3A7-1E80-B6C8-AE18-5E921B24D40D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="2165350"/>
+          <a:ext cx="6350" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8BFA364-E6D3-4DD7-A3AD-60DA31751452}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5283200" y="3168650"/>
+          <a:ext cx="6350" cy="273050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{049AF341-684E-7F33-2EA6-181DC74A6283}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7092950" y="850900"/>
+          <a:ext cx="812800" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A919E161-660A-A50D-D920-E0D04BFC27BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7092950" y="850900"/>
+          <a:ext cx="800100" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE42B374-3835-83FE-F73B-327C2FFFB9C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7092950" y="850900"/>
+          <a:ext cx="812800" cy="1250950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B591344-0608-4BA0-A6B8-DA72D3558ABD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="2590800"/>
+          <a:ext cx="1365250" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>マイページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AACE71D9-3C06-B252-4EE6-789C86E3472C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9537700" y="869950"/>
+          <a:ext cx="400050" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{530C7015-FDEB-8482-A63E-D0DCE94A6342}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10620375" y="1130300"/>
+          <a:ext cx="6350" cy="1460500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34531D0E-55D6-49C3-BBF1-E1DA68955464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11506200" y="1612900"/>
+          <a:ext cx="1365250" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>新規登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B58A85-B819-82E3-CCAE-625EA1664C30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="49" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11303000" y="882650"/>
+          <a:ext cx="885825" cy="730250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94465063-F459-3C4F-7432-59AF577A4250}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="2"/>
+          <a:endCxn id="42" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11309350" y="2108200"/>
+          <a:ext cx="879475" cy="730250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F230A3-730A-D615-A9A3-4C01B6DBC504}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11963400" y="812800"/>
+          <a:ext cx="1181100" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アカウントをお持ちでない方</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -449,6 +2000,35 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-09-03T04:40:21.300"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2626 638 24575,'-371'0'0,"357"-1"0,-1 0 0,-26-8 0,5 2 0,17 3 0,-29-10 0,-7-2 0,44 13 0,0 1 0,0-2 0,1 1 0,-15-8 0,20 8 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,0 0 0,0 0 0,-5-8 0,-5-10 0,-31-38 0,3 4 0,-8-37 0,44 83 0,-1-1 0,1 0 0,1 0 0,0 0 0,1 0 0,0-1 0,0 0 0,1 0 0,1 1 0,0-1 0,1 0 0,0 0 0,1 0 0,3-18 0,-3 26 0,0-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,7-2 0,-3 1 0,1 1 0,0 0 0,-1 0 0,1 1 0,0 0 0,0 1 0,1 0 0,14 1 0,69-1 0,80 4 0,-159-1 0,1 1 0,-1 1 0,0 0 0,20 9 0,-20-7 0,0-1 0,0 0 0,29 4 0,-20-4 0,0 0 0,-1 1 0,1 2 0,32 15 0,-29-12 0,1 0 0,40 9 0,-40-12 0,1 1 0,-1 2 0,-1 0 0,0 2 0,29 18 0,-27-15 0,-24-13 0,1 1 0,-1-1 0,1 1 0,-1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 8 0,1 12 0,0-1 0,-3 47 0,0-48 0,-1-13 0,2 1 0,-2 0 0,-2 21 0,2-28 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,-3 4 0,-18 20 0,21-21 0,-1-1 0,0 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,-8 3 0,-13 7 0,15-8 0,-1 0 0,-19 6 0,26-10 0,0-1 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,-9-3 0,1 0 0,1-1 0,0 0 0,0-1 0,1-1 0,0 1 0,-11-9 0,6 5 0,2 2 0,1 1 0,-1 1 0,0 0 0,-21-4 0,-20-8 0,19 1-1365,25 12-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1551.75">1762 303 24575,'-20'0'0,"0"-1"0,0 0 0,-32-8 0,-73-9 0,106 15 0,-1 1 0,0 1 0,-23 1 0,24 0 0,-1 0 0,1-1 0,-26-5 0,15 1 0,-34-2 0,-18-3 0,53 6 0,-32-1 0,-26-3 0,42 2 0,-1 3 0,-80 4 0,43 0 0,-569-1-1365,637 0-5461</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -748,16 +2328,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A6BE43-5396-4949-A467-49F8CEFDA03C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{FA157CCA-DE6E-4CEA-8F03-B399C7585BFF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -765,14 +2391,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AA91C4-3316-494A-9BD7-A87F9DAEFFB7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -784,7 +2411,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
